--- a/results/mp/tinybert/dilemma/confidence/210/stop-words-topk-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/210/stop-words-topk-0.1/avg_0.004_scores.xlsx
@@ -43,18 +43,18 @@
     <t>evil</t>
   </si>
   <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
     <t>illegal</t>
   </si>
   <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
     <t>dangerous</t>
   </si>
   <si>
@@ -73,22 +73,22 @@
     <t>amazing</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>better</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>important</t>
   </si>
   <si>
     <t>social</t>
@@ -571,13 +571,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9903846153846154</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="C4">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>19</v>
       </c>
       <c r="K4">
-        <v>0.84</v>
+        <v>0.9</v>
       </c>
       <c r="L4">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="M4">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -613,7 +613,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -645,13 +645,13 @@
         <v>20</v>
       </c>
       <c r="K5">
-        <v>0.8333333333333334</v>
+        <v>0.82</v>
       </c>
       <c r="L5">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="M5">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -671,13 +671,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9333333333333333</v>
+        <v>0.9242424242424242</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -689,19 +689,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K6">
-        <v>0.6666666666666666</v>
+        <v>0.6140350877192983</v>
       </c>
       <c r="L6">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M6">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -721,13 +721,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9242424242424242</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C7">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="D7">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -739,19 +739,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K7">
-        <v>0.5517241379310345</v>
+        <v>0.55</v>
       </c>
       <c r="L7">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="M7">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -763,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -771,13 +771,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7894736842105263</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C8">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D8">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -789,19 +789,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K8">
-        <v>0.5466666666666666</v>
+        <v>0.52</v>
       </c>
       <c r="L8">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M8">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -813,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -821,13 +821,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.65</v>
+        <v>0.625</v>
       </c>
       <c r="C9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -839,19 +839,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K9">
-        <v>0.4833333333333333</v>
+        <v>0.4827586206896552</v>
       </c>
       <c r="L9">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="M9">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -863,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -871,13 +871,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.463768115942029</v>
+        <v>0.4565217391304348</v>
       </c>
       <c r="C10">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D10">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -889,19 +889,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K10">
-        <v>0.03187613843351549</v>
+        <v>0.04280510018214936</v>
       </c>
       <c r="L10">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="M10">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -913,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1063</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -921,13 +921,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.2765957446808511</v>
+        <v>0.4468085106382979</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -939,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
